--- a/第13组/项目计划表.xlsx
+++ b/第13组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>1.熟悉需求说明书，2.完成gps信息采集用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将用例图归并到管理群用例图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,6 +166,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,14 +474,14 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="43.25" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -502,7 +513,9 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -512,7 +525,9 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -522,8 +537,12 @@
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -532,7 +551,9 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -542,12 +563,14 @@
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>

--- a/第13组/项目计划表.xlsx
+++ b/第13组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -47,43 +47,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1.熟悉需求说明书，2.完成登陆注册用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求说明书，2.完成个人信息维护用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求说明书，2.完成管理群用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求说明书，2.完成创建群用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求说明书，2.完成gps信息采集用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将用例图归并到管理群用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王伟锋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈升云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>林玮成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>林玮成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>吴帅辰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>吴帅辰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>李海洋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.熟悉需求说明书，2.完成登陆注册用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.熟悉需求说明书，2.完成个人信息维护用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.熟悉需求说明书，2.完成管理群用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.熟悉需求说明书，2.完成创建群用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.熟悉需求说明书，2.完成gps信息采集用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将用例图归并到管理群用例图</t>
+    <t>李海洋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成系统管理用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善用户用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对用例图进行用例简述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对用例图进行用例简述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对用例图进行用例简述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -161,14 +209,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +522,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -485,12 +533,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -511,9 +559,9 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
@@ -523,72 +571,72 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -605,48 +653,78 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/第13组/项目计划表.xlsx
+++ b/第13组/项目计划表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -124,6 +129,34 @@
   </si>
   <si>
     <t>对用例图进行用例简述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.10 第六周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例规约文档编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例规约文档编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例规约文档编写</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -138,8 +171,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +191,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,6 +259,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -227,6 +274,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -275,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,7 +360,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,20 +569,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.25" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -540,7 +590,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -554,7 +604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -566,7 +616,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -578,7 +628,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -592,7 +642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -604,7 +654,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -616,7 +666,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -624,13 +674,13 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -638,7 +688,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -652,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -664,7 +714,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -676,7 +726,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -688,7 +738,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -700,7 +750,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -712,7 +762,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -720,22 +770,120 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A27:D28"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -745,7 +893,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -759,7 +907,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/项目计划表.xlsx
+++ b/第13组/项目计划表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -253,17 +253,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -583,12 +583,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -667,26 +667,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -763,26 +763,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -802,10 +802,10 @@
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="2"/>
@@ -814,10 +814,10 @@
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="2"/>
@@ -826,10 +826,10 @@
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2"/>
@@ -838,7 +838,7 @@
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -850,7 +850,7 @@
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -859,21 +859,119 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A38:D39"/>
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
